--- a/rate_list.xlsx
+++ b/rate_list.xlsx
@@ -392,7 +392,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,7 +461,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>29</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -477,7 +477,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>555</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -485,7 +485,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -493,7 +493,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>75</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
